--- a/converted_files/837/home-infusion-ndc.xlsx
+++ b/converted_files/837/home-infusion-ndc.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:MN7"/>
+  <dimension ref="A1:MO7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -643,1185 +643,1190 @@
       </c>
       <c r="DL1" s="3" t="inlineStr">
         <is>
+          <t>DemonstrationProjectIdentifier</t>
+        </is>
+      </c>
+      <c r="DM1" s="3" t="inlineStr">
+        <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="DM1" s="3" t="inlineStr">
+      <c r="DN1" s="3" t="inlineStr">
         <is>
           <t>Diag1Code</t>
         </is>
       </c>
-      <c r="DN1" s="3" t="inlineStr">
+      <c r="DO1" s="3" t="inlineStr">
         <is>
           <t>Diag2Code</t>
         </is>
       </c>
-      <c r="DO1" s="3" t="inlineStr">
+      <c r="DP1" s="3" t="inlineStr">
         <is>
           <t>Diag3Code</t>
         </is>
       </c>
-      <c r="DP1" s="3" t="inlineStr">
+      <c r="DQ1" s="3" t="inlineStr">
         <is>
           <t>Diag4Code</t>
         </is>
       </c>
-      <c r="DQ1" s="3" t="inlineStr">
+      <c r="DR1" s="3" t="inlineStr">
         <is>
           <t>Diag5Code</t>
         </is>
       </c>
-      <c r="DR1" s="3" t="inlineStr">
+      <c r="DS1" s="3" t="inlineStr">
         <is>
           <t>AnesthesiaProcedureCode</t>
         </is>
       </c>
-      <c r="DS1" s="3" t="inlineStr">
+      <c r="DT1" s="3" t="inlineStr">
         <is>
           <t>Condition1Code</t>
         </is>
       </c>
-      <c r="DT1" s="3" t="inlineStr">
+      <c r="DU1" s="3" t="inlineStr">
         <is>
           <t>Condition2Code</t>
         </is>
       </c>
-      <c r="DU1" s="3" t="inlineStr">
+      <c r="DV1" s="3" t="inlineStr">
         <is>
           <t>Condition3Code</t>
         </is>
       </c>
-      <c r="DV1" s="3" t="inlineStr">
+      <c r="DW1" s="3" t="inlineStr">
         <is>
           <t>Attachment1ReportTypeCode</t>
         </is>
       </c>
-      <c r="DW1" s="3" t="inlineStr">
+      <c r="DX1" s="3" t="inlineStr">
         <is>
           <t>Attachment1ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="DX1" s="3" t="inlineStr">
+      <c r="DY1" s="3" t="inlineStr">
         <is>
           <t>Attachment1ControlNumber</t>
         </is>
       </c>
-      <c r="DY1" s="3" t="inlineStr">
+      <c r="DZ1" s="3" t="inlineStr">
         <is>
           <t>Attachment2ReportTypeCode</t>
         </is>
       </c>
-      <c r="DZ1" s="3" t="inlineStr">
+      <c r="EA1" s="3" t="inlineStr">
         <is>
           <t>Attachment2ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="EA1" s="3" t="inlineStr">
+      <c r="EB1" s="3" t="inlineStr">
         <is>
           <t>Attachment2ControlNumber</t>
         </is>
       </c>
-      <c r="EB1" s="3" t="inlineStr">
+      <c r="EC1" s="3" t="inlineStr">
         <is>
           <t>Attachment3ReportTypeCode</t>
         </is>
       </c>
-      <c r="EC1" s="3" t="inlineStr">
+      <c r="ED1" s="3" t="inlineStr">
         <is>
           <t>Attachment3ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="ED1" s="3" t="inlineStr">
+      <c r="EE1" s="3" t="inlineStr">
         <is>
           <t>Attachment3ControlNumber</t>
         </is>
       </c>
-      <c r="EE1" s="3" t="inlineStr">
+      <c r="EF1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderIdentifier</t>
         </is>
       </c>
-      <c r="EF1" s="3" t="inlineStr">
+      <c r="EG1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EG1" s="3" t="inlineStr">
+      <c r="EH1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderFirstName</t>
         </is>
       </c>
-      <c r="EH1" s="3" t="inlineStr">
+      <c r="EI1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderMiddleName</t>
         </is>
       </c>
-      <c r="EI1" s="3" t="inlineStr">
+      <c r="EJ1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="EJ1" s="3" t="inlineStr">
+      <c r="EK1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="EK1" s="3" t="inlineStr">
+      <c r="EL1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="EL1" s="3" t="inlineStr">
+      <c r="EM1" s="3" t="inlineStr">
         <is>
           <t>ReferringProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="EM1" s="3" t="inlineStr">
+      <c r="EN1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderIdentifier</t>
         </is>
       </c>
-      <c r="EN1" s="3" t="inlineStr">
+      <c r="EO1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="EO1" s="3" t="inlineStr">
+      <c r="EP1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderFirstName</t>
         </is>
       </c>
-      <c r="EP1" s="3" t="inlineStr">
+      <c r="EQ1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderMiddleName</t>
         </is>
       </c>
-      <c r="EQ1" s="3" t="inlineStr">
+      <c r="ER1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderProviderTaxonomyCode</t>
         </is>
       </c>
-      <c r="ER1" s="3" t="inlineStr">
+      <c r="ES1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="ES1" s="3" t="inlineStr">
+      <c r="ET1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="ET1" s="3" t="inlineStr">
+      <c r="EU1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="EU1" s="3" t="inlineStr">
+      <c r="EV1" s="3" t="inlineStr">
         <is>
           <t>RenderingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="EV1" s="3" t="inlineStr">
+      <c r="EW1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityIdentifier</t>
         </is>
       </c>
-      <c r="EW1" s="3" t="inlineStr">
+      <c r="EX1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityName</t>
         </is>
       </c>
-      <c r="EX1" s="3" t="inlineStr">
+      <c r="EY1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressLine</t>
         </is>
       </c>
-      <c r="EY1" s="3" t="inlineStr">
+      <c r="EZ1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressLine2</t>
         </is>
       </c>
-      <c r="EZ1" s="3" t="inlineStr">
+      <c r="FA1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressCity</t>
         </is>
       </c>
-      <c r="FA1" s="3" t="inlineStr">
+      <c r="FB1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressStateCode</t>
         </is>
       </c>
-      <c r="FB1" s="3" t="inlineStr">
+      <c r="FC1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAddressZipCode</t>
         </is>
       </c>
-      <c r="FC1" s="3" t="inlineStr">
+      <c r="FD1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactName</t>
         </is>
       </c>
-      <c r="FD1" s="3" t="inlineStr">
+      <c r="FE1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="FE1" s="3" t="inlineStr">
+      <c r="FF1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="FF1" s="3" t="inlineStr">
+      <c r="FG1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="FG1" s="3" t="inlineStr">
+      <c r="FH1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="FH1" s="3" t="inlineStr">
+      <c r="FI1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId1Type</t>
         </is>
       </c>
-      <c r="FI1" s="3" t="inlineStr">
+      <c r="FJ1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="FJ1" s="3" t="inlineStr">
+      <c r="FK1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId2Type</t>
         </is>
       </c>
-      <c r="FK1" s="3" t="inlineStr">
+      <c r="FL1" s="3" t="inlineStr">
         <is>
           <t>ServiceFacilityAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="FL1" s="3" t="inlineStr">
+      <c r="FM1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderIdentifier</t>
         </is>
       </c>
-      <c r="FM1" s="3" t="inlineStr">
+      <c r="FN1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="FN1" s="3" t="inlineStr">
+      <c r="FO1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderFirstName</t>
         </is>
       </c>
-      <c r="FO1" s="3" t="inlineStr">
+      <c r="FP1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderMiddleName</t>
         </is>
       </c>
-      <c r="FP1" s="3" t="inlineStr">
+      <c r="FQ1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="FQ1" s="3" t="inlineStr">
+      <c r="FR1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="FR1" s="3" t="inlineStr">
+      <c r="FS1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="FS1" s="3" t="inlineStr">
+      <c r="FT1" s="3" t="inlineStr">
         <is>
           <t>SupervisingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="FT1" s="3" t="inlineStr">
+      <c r="FU1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressLine</t>
         </is>
       </c>
-      <c r="FU1" s="3" t="inlineStr">
+      <c r="FV1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressLine2</t>
         </is>
       </c>
-      <c r="FV1" s="3" t="inlineStr">
+      <c r="FW1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressCity</t>
         </is>
       </c>
-      <c r="FW1" s="3" t="inlineStr">
+      <c r="FX1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressStateCode</t>
         </is>
       </c>
-      <c r="FX1" s="3" t="inlineStr">
+      <c r="FY1" s="3" t="inlineStr">
         <is>
           <t>AmbulancePickUpAddressZipCode</t>
         </is>
       </c>
-      <c r="FY1" s="3" t="inlineStr">
+      <c r="FZ1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="FZ1" s="3" t="inlineStr">
+      <c r="GA1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressLine</t>
         </is>
       </c>
-      <c r="GA1" s="3" t="inlineStr">
+      <c r="GB1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressLine2</t>
         </is>
       </c>
-      <c r="GB1" s="3" t="inlineStr">
+      <c r="GC1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressCity</t>
         </is>
       </c>
-      <c r="GC1" s="3" t="inlineStr">
+      <c r="GD1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressStateCode</t>
         </is>
       </c>
-      <c r="GD1" s="3" t="inlineStr">
+      <c r="GE1" s="3" t="inlineStr">
         <is>
           <t>AmbulanceDropOffAddressZipCode</t>
         </is>
       </c>
-      <c r="GE1" s="3" t="inlineStr">
+      <c r="GF1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerResponsibilitySequence</t>
         </is>
       </c>
-      <c r="GF1" s="3" t="inlineStr">
+      <c r="GG1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberRelationshipType</t>
         </is>
       </c>
-      <c r="GG1" s="3" t="inlineStr">
+      <c r="GH1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberGroupOrPolicyNumber</t>
         </is>
       </c>
-      <c r="GH1" s="3" t="inlineStr">
+      <c r="GI1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberGroupName</t>
         </is>
       </c>
-      <c r="GI1" s="3" t="inlineStr">
+      <c r="GJ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberClaimFilingIndicatorCode</t>
         </is>
       </c>
-      <c r="GJ1" s="3" t="inlineStr">
+      <c r="GK1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberIdentificationType</t>
         </is>
       </c>
-      <c r="GK1" s="3" t="inlineStr">
+      <c r="GL1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberIdentifier</t>
         </is>
       </c>
-      <c r="GL1" s="3" t="inlineStr">
+      <c r="GM1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberTaxId</t>
         </is>
       </c>
-      <c r="GM1" s="3" t="inlineStr">
+      <c r="GN1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberLastName</t>
         </is>
       </c>
-      <c r="GN1" s="3" t="inlineStr">
+      <c r="GO1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberFirstName</t>
         </is>
       </c>
-      <c r="GO1" s="3" t="inlineStr">
+      <c r="GP1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberMiddleName</t>
         </is>
       </c>
-      <c r="GP1" s="3" t="inlineStr">
+      <c r="GQ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressLine</t>
         </is>
       </c>
-      <c r="GQ1" s="3" t="inlineStr">
+      <c r="GR1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressLine2</t>
         </is>
       </c>
-      <c r="GR1" s="3" t="inlineStr">
+      <c r="GS1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressCity</t>
         </is>
       </c>
-      <c r="GS1" s="3" t="inlineStr">
+      <c r="GT1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressStateCode</t>
         </is>
       </c>
-      <c r="GT1" s="3" t="inlineStr">
+      <c r="GU1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAddressZipCode</t>
         </is>
       </c>
-      <c r="GU1" s="3" t="inlineStr">
+      <c r="GV1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1Group</t>
         </is>
       </c>
-      <c r="GV1" s="3" t="inlineStr">
+      <c r="GW1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1ReasonCode</t>
         </is>
       </c>
-      <c r="GW1" s="3" t="inlineStr">
+      <c r="GX1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1Amount</t>
         </is>
       </c>
-      <c r="GX1" s="3" t="inlineStr">
+      <c r="GY1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment1Quantity</t>
         </is>
       </c>
-      <c r="GY1" s="3" t="inlineStr">
+      <c r="GZ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2Group</t>
         </is>
       </c>
-      <c r="GZ1" s="3" t="inlineStr">
+      <c r="HA1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2ReasonCode</t>
         </is>
       </c>
-      <c r="HA1" s="3" t="inlineStr">
+      <c r="HB1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2Amount</t>
         </is>
       </c>
-      <c r="HB1" s="3" t="inlineStr">
+      <c r="HC1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment2Quantity</t>
         </is>
       </c>
-      <c r="HC1" s="3" t="inlineStr">
+      <c r="HD1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3Group</t>
         </is>
       </c>
-      <c r="HD1" s="3" t="inlineStr">
+      <c r="HE1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3ReasonCode</t>
         </is>
       </c>
-      <c r="HE1" s="3" t="inlineStr">
+      <c r="HF1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3Amount</t>
         </is>
       </c>
-      <c r="HF1" s="3" t="inlineStr">
+      <c r="HG1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberAdjustment3Quantity</t>
         </is>
       </c>
-      <c r="HG1" s="3" t="inlineStr">
+      <c r="HH1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerPaidAmount</t>
         </is>
       </c>
-      <c r="HH1" s="3" t="inlineStr">
+      <c r="HI1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberNonCoveredAmount</t>
         </is>
       </c>
-      <c r="HI1" s="3" t="inlineStr">
+      <c r="HJ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberRemainingPatientLiabilityAmount</t>
         </is>
       </c>
-      <c r="HJ1" s="3" t="inlineStr">
+      <c r="HK1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerClaimControlNumber</t>
         </is>
       </c>
-      <c r="HK1" s="3" t="inlineStr">
+      <c r="HL1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerIdentificationType</t>
         </is>
       </c>
-      <c r="HL1" s="3" t="inlineStr">
+      <c r="HM1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerIdentifier</t>
         </is>
       </c>
-      <c r="HM1" s="3" t="inlineStr">
+      <c r="HN1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerTaxId</t>
         </is>
       </c>
-      <c r="HN1" s="3" t="inlineStr">
+      <c r="HO1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerName</t>
         </is>
       </c>
-      <c r="HO1" s="3" t="inlineStr">
+      <c r="HP1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressLine</t>
         </is>
       </c>
-      <c r="HP1" s="3" t="inlineStr">
+      <c r="HQ1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressLine2</t>
         </is>
       </c>
-      <c r="HQ1" s="3" t="inlineStr">
+      <c r="HR1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressCity</t>
         </is>
       </c>
-      <c r="HR1" s="3" t="inlineStr">
+      <c r="HS1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressStateCode</t>
         </is>
       </c>
-      <c r="HS1" s="3" t="inlineStr">
+      <c r="HT1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAddressZipCode</t>
         </is>
       </c>
-      <c r="HT1" s="3" t="inlineStr">
+      <c r="HU1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId1Type</t>
         </is>
       </c>
-      <c r="HU1" s="3" t="inlineStr">
+      <c r="HV1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="HV1" s="3" t="inlineStr">
+      <c r="HW1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId2Type</t>
         </is>
       </c>
-      <c r="HW1" s="3" t="inlineStr">
+      <c r="HX1" s="3" t="inlineStr">
         <is>
           <t>OtherSubscriberPayerAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="HX1" s="3" t="inlineStr">
+      <c r="HY1" s="3" t="inlineStr">
         <is>
           <t>LineControlNumber</t>
         </is>
       </c>
-      <c r="HY1" s="3" t="inlineStr">
+      <c r="HZ1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureCode</t>
         </is>
       </c>
-      <c r="HZ1" s="3" t="inlineStr">
+      <c r="IA1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureDescFromClaim</t>
         </is>
       </c>
-      <c r="IA1" s="3" t="inlineStr">
+      <c r="IB1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier1Code</t>
         </is>
       </c>
-      <c r="IB1" s="3" t="inlineStr">
+      <c r="IC1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier2Code</t>
         </is>
       </c>
-      <c r="IC1" s="3" t="inlineStr">
+      <c r="ID1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier3Code</t>
         </is>
       </c>
-      <c r="ID1" s="3" t="inlineStr">
+      <c r="IE1" s="3" t="inlineStr">
         <is>
           <t>LineProcedureModifier4Code</t>
         </is>
       </c>
-      <c r="IE1" s="3" t="inlineStr">
+      <c r="IF1" s="3" t="inlineStr">
         <is>
           <t>LineChargeAmount</t>
         </is>
       </c>
-      <c r="IF1" s="3" t="inlineStr">
+      <c r="IG1" s="3" t="inlineStr">
         <is>
           <t>LineUnitType</t>
         </is>
       </c>
-      <c r="IG1" s="3" t="inlineStr">
+      <c r="IH1" s="3" t="inlineStr">
         <is>
           <t>LineUnitCount</t>
         </is>
       </c>
-      <c r="IH1" s="3" t="inlineStr">
+      <c r="II1" s="3" t="inlineStr">
         <is>
           <t>LinePlaceOfService</t>
         </is>
       </c>
-      <c r="II1" s="3" t="inlineStr">
+      <c r="IJ1" s="3" t="inlineStr">
         <is>
           <t>LinePlaceOfServiceCode</t>
         </is>
       </c>
-      <c r="IJ1" s="3" t="inlineStr">
+      <c r="IK1" s="3" t="inlineStr">
         <is>
           <t>LineDiagPointer1</t>
         </is>
       </c>
-      <c r="IK1" s="3" t="inlineStr">
+      <c r="IL1" s="3" t="inlineStr">
         <is>
           <t>LineDiagPointer2</t>
         </is>
       </c>
-      <c r="IL1" s="3" t="inlineStr">
+      <c r="IM1" s="3" t="inlineStr">
         <is>
           <t>LineDiagPointer3</t>
         </is>
       </c>
-      <c r="IM1" s="3" t="inlineStr">
+      <c r="IN1" s="3" t="inlineStr">
         <is>
           <t>LineEmergencyIndicator</t>
         </is>
       </c>
-      <c r="IN1" s="3" t="inlineStr">
+      <c r="IO1" s="3" t="inlineStr">
         <is>
           <t>LineEpsdtIndicator</t>
         </is>
       </c>
-      <c r="IO1" s="3" t="inlineStr">
+      <c r="IP1" s="3" t="inlineStr">
         <is>
           <t>LineFamilyPlanningIndicator</t>
         </is>
       </c>
-      <c r="IP1" s="3" t="inlineStr">
+      <c r="IQ1" s="3" t="inlineStr">
         <is>
           <t>LineCopayStatusCode</t>
         </is>
       </c>
-      <c r="IQ1" s="3" t="inlineStr">
+      <c r="IR1" s="3" t="inlineStr">
         <is>
           <t>LineServiceDateFrom</t>
         </is>
       </c>
-      <c r="IR1" s="3" t="inlineStr">
+      <c r="IS1" s="3" t="inlineStr">
         <is>
           <t>LineServiceDateTo</t>
         </is>
       </c>
-      <c r="IS1" s="3" t="inlineStr">
+      <c r="IT1" s="3" t="inlineStr">
         <is>
           <t>LinePrescriptionDate</t>
         </is>
       </c>
-      <c r="IT1" s="3" t="inlineStr">
+      <c r="IU1" s="3" t="inlineStr">
         <is>
           <t>LineBeginTherapyDate</t>
         </is>
       </c>
-      <c r="IU1" s="3" t="inlineStr">
+      <c r="IV1" s="3" t="inlineStr">
         <is>
           <t>LineLastSeenDate</t>
         </is>
       </c>
-      <c r="IV1" s="3" t="inlineStr">
+      <c r="IW1" s="3" t="inlineStr">
         <is>
           <t>LineTestPerformedDate</t>
         </is>
       </c>
-      <c r="IW1" s="3" t="inlineStr">
+      <c r="IX1" s="3" t="inlineStr">
         <is>
           <t>LineLastXRayDate</t>
         </is>
       </c>
-      <c r="IX1" s="3" t="inlineStr">
+      <c r="IY1" s="3" t="inlineStr">
         <is>
           <t>LineInitialTreatmentDate</t>
         </is>
       </c>
-      <c r="IY1" s="3" t="inlineStr">
+      <c r="IZ1" s="3" t="inlineStr">
         <is>
           <t>LinePriorAuthorization</t>
         </is>
       </c>
-      <c r="IZ1" s="3" t="inlineStr">
+      <c r="JA1" s="3" t="inlineStr">
         <is>
           <t>LineReferralNumber</t>
         </is>
       </c>
-      <c r="JA1" s="3" t="inlineStr">
+      <c r="JB1" s="3" t="inlineStr">
         <is>
           <t>LineRepricedReferenceNumber</t>
         </is>
       </c>
-      <c r="JB1" s="3" t="inlineStr">
+      <c r="JC1" s="3" t="inlineStr">
         <is>
           <t>LineAdjustedRepricedReferenceNumber</t>
         </is>
       </c>
-      <c r="JC1" s="3" t="inlineStr">
+      <c r="JD1" s="3" t="inlineStr">
         <is>
           <t>LineNote</t>
         </is>
       </c>
-      <c r="JD1" s="3" t="inlineStr">
+      <c r="JE1" s="3" t="inlineStr">
         <is>
           <t>LineThirdPartyNote</t>
         </is>
       </c>
-      <c r="JE1" s="3" t="inlineStr">
+      <c r="JF1" s="3" t="inlineStr">
         <is>
           <t>LineDrugCode</t>
         </is>
       </c>
-      <c r="JF1" s="3" t="inlineStr">
+      <c r="JG1" s="3" t="inlineStr">
         <is>
           <t>LineDrugQuantity</t>
         </is>
       </c>
-      <c r="JG1" s="3" t="inlineStr">
+      <c r="JH1" s="3" t="inlineStr">
         <is>
           <t>LineDrugUnitType</t>
         </is>
       </c>
-      <c r="JH1" s="3" t="inlineStr">
+      <c r="JI1" s="3" t="inlineStr">
         <is>
           <t>LinePrescriptionNumber</t>
         </is>
       </c>
-      <c r="JI1" s="3" t="inlineStr">
+      <c r="JJ1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment1ReportTypeCode</t>
         </is>
       </c>
-      <c r="JJ1" s="3" t="inlineStr">
+      <c r="JK1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment1ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="JK1" s="3" t="inlineStr">
+      <c r="JL1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment1ControlNumber</t>
         </is>
       </c>
-      <c r="JL1" s="3" t="inlineStr">
+      <c r="JM1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment2ReportTypeCode</t>
         </is>
       </c>
-      <c r="JM1" s="3" t="inlineStr">
+      <c r="JN1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment2ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="JN1" s="3" t="inlineStr">
+      <c r="JO1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment2ControlNumber</t>
         </is>
       </c>
-      <c r="JO1" s="3" t="inlineStr">
+      <c r="JP1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment3ReportTypeCode</t>
         </is>
       </c>
-      <c r="JP1" s="3" t="inlineStr">
+      <c r="JQ1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment3ReportTransmissionCode</t>
         </is>
       </c>
-      <c r="JQ1" s="3" t="inlineStr">
+      <c r="JR1" s="3" t="inlineStr">
         <is>
           <t>LineAttachment3ControlNumber</t>
         </is>
       </c>
-      <c r="JR1" s="3" t="inlineStr">
+      <c r="JS1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderIdentifier</t>
         </is>
       </c>
-      <c r="JS1" s="3" t="inlineStr">
+      <c r="JT1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="JT1" s="3" t="inlineStr">
+      <c r="JU1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderFirstName</t>
         </is>
       </c>
-      <c r="JU1" s="3" t="inlineStr">
+      <c r="JV1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderMiddleName</t>
         </is>
       </c>
-      <c r="JV1" s="3" t="inlineStr">
+      <c r="JW1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderProviderTaxonomyCode</t>
         </is>
       </c>
-      <c r="JW1" s="3" t="inlineStr">
+      <c r="JX1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="JX1" s="3" t="inlineStr">
+      <c r="JY1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="JY1" s="3" t="inlineStr">
+      <c r="JZ1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="JZ1" s="3" t="inlineStr">
+      <c r="KA1" s="3" t="inlineStr">
         <is>
           <t>LineRenderingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="KA1" s="3" t="inlineStr">
+      <c r="KB1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderIdentifier</t>
         </is>
       </c>
-      <c r="KB1" s="3" t="inlineStr">
+      <c r="KC1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="KC1" s="3" t="inlineStr">
+      <c r="KD1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="KD1" s="3" t="inlineStr">
+      <c r="KE1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="KE1" s="3" t="inlineStr">
+      <c r="KF1" s="3" t="inlineStr">
         <is>
           <t>LinePurchasedServiceProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="KF1" s="3" t="inlineStr">
+      <c r="KG1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityIdentifier</t>
         </is>
       </c>
-      <c r="KG1" s="3" t="inlineStr">
+      <c r="KH1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityName</t>
         </is>
       </c>
-      <c r="KH1" s="3" t="inlineStr">
+      <c r="KI1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressLine</t>
         </is>
       </c>
-      <c r="KI1" s="3" t="inlineStr">
+      <c r="KJ1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressLine2</t>
         </is>
       </c>
-      <c r="KJ1" s="3" t="inlineStr">
+      <c r="KK1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressCity</t>
         </is>
       </c>
-      <c r="KK1" s="3" t="inlineStr">
+      <c r="KL1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressStateCode</t>
         </is>
       </c>
-      <c r="KL1" s="3" t="inlineStr">
+      <c r="KM1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAddressZipCode</t>
         </is>
       </c>
-      <c r="KM1" s="3" t="inlineStr">
+      <c r="KN1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactName</t>
         </is>
       </c>
-      <c r="KN1" s="3" t="inlineStr">
+      <c r="KO1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="KO1" s="3" t="inlineStr">
+      <c r="KP1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="KP1" s="3" t="inlineStr">
+      <c r="KQ1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="KQ1" s="3" t="inlineStr">
+      <c r="KR1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="KR1" s="3" t="inlineStr">
+      <c r="KS1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId1Type</t>
         </is>
       </c>
-      <c r="KS1" s="3" t="inlineStr">
+      <c r="KT1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="KT1" s="3" t="inlineStr">
+      <c r="KU1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId2Type</t>
         </is>
       </c>
-      <c r="KU1" s="3" t="inlineStr">
+      <c r="KV1" s="3" t="inlineStr">
         <is>
           <t>LineServiceFacilityAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="KV1" s="3" t="inlineStr">
+      <c r="KW1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderIdentifier</t>
         </is>
       </c>
-      <c r="KW1" s="3" t="inlineStr">
+      <c r="KX1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="KX1" s="3" t="inlineStr">
+      <c r="KY1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderFirstName</t>
         </is>
       </c>
-      <c r="KY1" s="3" t="inlineStr">
+      <c r="KZ1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderMiddleName</t>
         </is>
       </c>
-      <c r="KZ1" s="3" t="inlineStr">
+      <c r="LA1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="LA1" s="3" t="inlineStr">
+      <c r="LB1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="LB1" s="3" t="inlineStr">
+      <c r="LC1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="LC1" s="3" t="inlineStr">
+      <c r="LD1" s="3" t="inlineStr">
         <is>
           <t>LineSupervisingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="LD1" s="3" t="inlineStr">
+      <c r="LE1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderIdentifier</t>
         </is>
       </c>
-      <c r="LE1" s="3" t="inlineStr">
+      <c r="LF1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="LF1" s="3" t="inlineStr">
+      <c r="LG1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderFirstName</t>
         </is>
       </c>
-      <c r="LG1" s="3" t="inlineStr">
+      <c r="LH1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderMiddleName</t>
         </is>
       </c>
-      <c r="LH1" s="3" t="inlineStr">
+      <c r="LI1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="LI1" s="3" t="inlineStr">
+      <c r="LJ1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="LJ1" s="3" t="inlineStr">
+      <c r="LK1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="LK1" s="3" t="inlineStr">
+      <c r="LL1" s="3" t="inlineStr">
         <is>
           <t>LineReferringProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="LL1" s="3" t="inlineStr">
+      <c r="LM1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderIdentifier</t>
         </is>
       </c>
-      <c r="LM1" s="3" t="inlineStr">
+      <c r="LN1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="LN1" s="3" t="inlineStr">
+      <c r="LO1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderFirstName</t>
         </is>
       </c>
-      <c r="LO1" s="3" t="inlineStr">
+      <c r="LP1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderMiddleName</t>
         </is>
       </c>
-      <c r="LP1" s="3" t="inlineStr">
+      <c r="LQ1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressLine</t>
         </is>
       </c>
-      <c r="LQ1" s="3" t="inlineStr">
+      <c r="LR1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressLine2</t>
         </is>
       </c>
-      <c r="LR1" s="3" t="inlineStr">
+      <c r="LS1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressCity</t>
         </is>
       </c>
-      <c r="LS1" s="3" t="inlineStr">
+      <c r="LT1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressStateCode</t>
         </is>
       </c>
-      <c r="LT1" s="3" t="inlineStr">
+      <c r="LU1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAddressZipCode</t>
         </is>
       </c>
-      <c r="LU1" s="3" t="inlineStr">
+      <c r="LV1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactName</t>
         </is>
       </c>
-      <c r="LV1" s="3" t="inlineStr">
+      <c r="LW1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber1Type</t>
         </is>
       </c>
-      <c r="LW1" s="3" t="inlineStr">
+      <c r="LX1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber1Number</t>
         </is>
       </c>
-      <c r="LX1" s="3" t="inlineStr">
+      <c r="LY1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber2Type</t>
         </is>
       </c>
-      <c r="LY1" s="3" t="inlineStr">
+      <c r="LZ1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderContactContactNumber2Number</t>
         </is>
       </c>
-      <c r="LZ1" s="3" t="inlineStr">
+      <c r="MA1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId1Type</t>
         </is>
       </c>
-      <c r="MA1" s="3" t="inlineStr">
+      <c r="MB1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId1Identification</t>
         </is>
       </c>
-      <c r="MB1" s="3" t="inlineStr">
+      <c r="MC1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId2Type</t>
         </is>
       </c>
-      <c r="MC1" s="3" t="inlineStr">
+      <c r="MD1" s="3" t="inlineStr">
         <is>
           <t>LineOrderingProviderAdditionalId2Identification</t>
         </is>
       </c>
-      <c r="MD1" s="3" t="inlineStr">
+      <c r="ME1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressLine</t>
         </is>
       </c>
-      <c r="ME1" s="3" t="inlineStr">
+      <c r="MF1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressLine2</t>
         </is>
       </c>
-      <c r="MF1" s="3" t="inlineStr">
+      <c r="MG1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressCity</t>
         </is>
       </c>
-      <c r="MG1" s="3" t="inlineStr">
+      <c r="MH1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressStateCode</t>
         </is>
       </c>
-      <c r="MH1" s="3" t="inlineStr">
+      <c r="MI1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulancePickUpAddressZipCode</t>
         </is>
       </c>
-      <c r="MI1" s="3" t="inlineStr">
+      <c r="MJ1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffLastNameOrOrgName</t>
         </is>
       </c>
-      <c r="MJ1" s="3" t="inlineStr">
+      <c r="MK1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressLine</t>
         </is>
       </c>
-      <c r="MK1" s="3" t="inlineStr">
+      <c r="ML1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressLine2</t>
         </is>
       </c>
-      <c r="ML1" s="3" t="inlineStr">
+      <c r="MM1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressCity</t>
         </is>
       </c>
-      <c r="MM1" s="3" t="inlineStr">
+      <c r="MN1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressStateCode</t>
         </is>
       </c>
-      <c r="MN1" s="3" t="inlineStr">
+      <c r="MO1" s="3" t="inlineStr">
         <is>
           <t>LineAmbulanceDropOffAddressZipCode</t>
         </is>
@@ -1830,7 +1835,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb5872</t>
+          <t>6901488a7e79911955eafebd</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2128,12 +2133,12 @@
       <c r="DJ2"/>
       <c r="DK2"/>
       <c r="DL2"/>
-      <c r="DM2" s="3" t="inlineStr">
+      <c r="DM2"/>
+      <c r="DN2" s="3" t="inlineStr">
         <is>
           <t>J069</t>
         </is>
       </c>
-      <c r="DN2"/>
       <c r="DO2"/>
       <c r="DP2"/>
       <c r="DQ2"/>
@@ -2247,58 +2252,58 @@
       <c r="HU2"/>
       <c r="HV2"/>
       <c r="HW2"/>
-      <c r="HX2" s="3" t="inlineStr">
+      <c r="HX2"/>
+      <c r="HY2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="HY2" s="3" t="inlineStr">
+      <c r="HZ2" s="3" t="inlineStr">
         <is>
           <t>S9500</t>
         </is>
       </c>
-      <c r="HZ2"/>
       <c r="IA2"/>
       <c r="IB2"/>
       <c r="IC2"/>
       <c r="ID2"/>
-      <c r="IE2" s="1" t="n">
+      <c r="IE2"/>
+      <c r="IF2" s="1" t="n">
         <v>1400.0</v>
       </c>
-      <c r="IF2" s="3" t="inlineStr">
+      <c r="IG2" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>7.0</v>
       </c>
-      <c r="IH2" s="3" t="inlineStr">
+      <c r="II2" s="3" t="inlineStr">
         <is>
           <t>HOME</t>
         </is>
       </c>
-      <c r="II2" s="3" t="inlineStr">
+      <c r="IJ2" s="3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="IJ2" s="2" t="n">
+      <c r="IK2" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK2"/>
       <c r="IL2"/>
       <c r="IM2"/>
       <c r="IN2"/>
       <c r="IO2"/>
       <c r="IP2"/>
-      <c r="IQ2" s="4" t="n">
+      <c r="IQ2"/>
+      <c r="IR2" s="4" t="n">
         <v>38018.0</v>
       </c>
-      <c r="IR2" s="4" t="n">
+      <c r="IS2" s="4" t="n">
         <v>38024.0</v>
       </c>
-      <c r="IS2"/>
       <c r="IT2"/>
       <c r="IU2"/>
       <c r="IV2"/>
@@ -2369,22 +2374,22 @@
       <c r="LI2"/>
       <c r="LJ2"/>
       <c r="LK2"/>
-      <c r="LL2" s="3" t="inlineStr">
+      <c r="LL2"/>
+      <c r="LM2" s="3" t="inlineStr">
         <is>
           <t>1112223338</t>
         </is>
       </c>
-      <c r="LM2" s="3" t="inlineStr">
+      <c r="LN2" s="3" t="inlineStr">
         <is>
           <t>Welby</t>
         </is>
       </c>
-      <c r="LN2" s="3" t="inlineStr">
+      <c r="LO2" s="3" t="inlineStr">
         <is>
           <t>Marcus</t>
         </is>
       </c>
-      <c r="LO2"/>
       <c r="LP2"/>
       <c r="LQ2"/>
       <c r="LR2"/>
@@ -2410,11 +2415,12 @@
       <c r="ML2"/>
       <c r="MM2"/>
       <c r="MN2"/>
+      <c r="MO2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb5872</t>
+          <t>6901488a7e79911955eafebd</t>
         </is>
       </c>
       <c r="B3"/>
@@ -2651,61 +2657,61 @@
       <c r="HU3"/>
       <c r="HV3"/>
       <c r="HW3"/>
-      <c r="HX3" s="3" t="inlineStr">
+      <c r="HX3"/>
+      <c r="HY3" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="HY3" s="3" t="inlineStr">
+      <c r="HZ3" s="3" t="inlineStr">
         <is>
           <t>S5001</t>
         </is>
       </c>
-      <c r="HZ3"/>
       <c r="IA3"/>
       <c r="IB3"/>
       <c r="IC3"/>
       <c r="ID3"/>
-      <c r="IE3" s="1" t="n">
+      <c r="IE3"/>
+      <c r="IF3" s="1" t="n">
         <v>682.5</v>
       </c>
-      <c r="IF3" s="3" t="inlineStr">
+      <c r="IG3" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG3" t="n">
+      <c r="IH3" t="n">
         <v>7.0</v>
       </c>
-      <c r="IH3" s="3" t="inlineStr">
+      <c r="II3" s="3" t="inlineStr">
         <is>
           <t>HOME</t>
         </is>
       </c>
-      <c r="II3" s="3" t="inlineStr">
+      <c r="IJ3" s="3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="IJ3" s="2" t="n">
+      <c r="IK3" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK3"/>
       <c r="IL3"/>
       <c r="IM3"/>
       <c r="IN3"/>
       <c r="IO3"/>
       <c r="IP3"/>
-      <c r="IQ3" s="4" t="n">
+      <c r="IQ3"/>
+      <c r="IR3" s="4" t="n">
         <v>38018.0</v>
       </c>
-      <c r="IR3" s="4" t="n">
+      <c r="IS3" s="4" t="n">
         <v>38024.0</v>
       </c>
-      <c r="IS3" s="4" t="n">
+      <c r="IT3" s="4" t="n">
         <v>38016.0</v>
       </c>
-      <c r="IT3"/>
       <c r="IU3"/>
       <c r="IV3"/>
       <c r="IW3"/>
@@ -2716,25 +2722,25 @@
       <c r="JB3"/>
       <c r="JC3"/>
       <c r="JD3"/>
-      <c r="JE3" s="3" t="inlineStr">
+      <c r="JE3"/>
+      <c r="JF3" s="3" t="inlineStr">
         <is>
           <t>00003161201</t>
         </is>
       </c>
-      <c r="JF3" t="n">
+      <c r="JG3" t="n">
         <v>7.0</v>
       </c>
-      <c r="JG3" s="3" t="inlineStr">
+      <c r="JH3" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="JH3" s="3" t="inlineStr">
+      <c r="JI3" s="3" t="inlineStr">
         <is>
           <t>2530001</t>
         </is>
       </c>
-      <c r="JI3"/>
       <c r="JJ3"/>
       <c r="JK3"/>
       <c r="JL3"/>
@@ -2789,22 +2795,22 @@
       <c r="LI3"/>
       <c r="LJ3"/>
       <c r="LK3"/>
-      <c r="LL3" s="3" t="inlineStr">
+      <c r="LL3"/>
+      <c r="LM3" s="3" t="inlineStr">
         <is>
           <t>1112223338</t>
         </is>
       </c>
-      <c r="LM3" s="3" t="inlineStr">
+      <c r="LN3" s="3" t="inlineStr">
         <is>
           <t>Welby</t>
         </is>
       </c>
-      <c r="LN3" s="3" t="inlineStr">
+      <c r="LO3" s="3" t="inlineStr">
         <is>
           <t>Marcus</t>
         </is>
       </c>
-      <c r="LO3"/>
       <c r="LP3"/>
       <c r="LQ3"/>
       <c r="LR3"/>
@@ -2830,11 +2836,12 @@
       <c r="ML3"/>
       <c r="MM3"/>
       <c r="MN3"/>
+      <c r="MO3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb5872</t>
+          <t>6901488a7e79911955eafebd</t>
         </is>
       </c>
       <c r="B4"/>
@@ -3071,61 +3078,61 @@
       <c r="HU4"/>
       <c r="HV4"/>
       <c r="HW4"/>
-      <c r="HX4" s="3" t="inlineStr">
+      <c r="HX4"/>
+      <c r="HY4" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="HY4" s="3" t="inlineStr">
+      <c r="HZ4" s="3" t="inlineStr">
         <is>
           <t>S5000</t>
         </is>
       </c>
-      <c r="HZ4"/>
       <c r="IA4"/>
       <c r="IB4"/>
       <c r="IC4"/>
       <c r="ID4"/>
-      <c r="IE4" s="1" t="n">
+      <c r="IE4"/>
+      <c r="IF4" s="1" t="n">
         <v>15.12</v>
       </c>
-      <c r="IF4" s="3" t="inlineStr">
+      <c r="IG4" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG4" t="n">
+      <c r="IH4" t="n">
         <v>14.0</v>
       </c>
-      <c r="IH4" s="3" t="inlineStr">
+      <c r="II4" s="3" t="inlineStr">
         <is>
           <t>HOME</t>
         </is>
       </c>
-      <c r="II4" s="3" t="inlineStr">
+      <c r="IJ4" s="3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="IJ4" s="2" t="n">
+      <c r="IK4" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK4"/>
       <c r="IL4"/>
       <c r="IM4"/>
       <c r="IN4"/>
       <c r="IO4"/>
       <c r="IP4"/>
-      <c r="IQ4" s="4" t="n">
+      <c r="IQ4"/>
+      <c r="IR4" s="4" t="n">
         <v>38018.0</v>
       </c>
-      <c r="IR4" s="4" t="n">
+      <c r="IS4" s="4" t="n">
         <v>38024.0</v>
       </c>
-      <c r="IS4" s="4" t="n">
+      <c r="IT4" s="4" t="n">
         <v>38016.0</v>
       </c>
-      <c r="IT4"/>
       <c r="IU4"/>
       <c r="IV4"/>
       <c r="IW4"/>
@@ -3136,25 +3143,25 @@
       <c r="JB4"/>
       <c r="JC4"/>
       <c r="JD4"/>
-      <c r="JE4" s="3" t="inlineStr">
+      <c r="JE4"/>
+      <c r="JF4" s="3" t="inlineStr">
         <is>
           <t>63323025510</t>
         </is>
       </c>
-      <c r="JF4" t="n">
+      <c r="JG4" t="n">
         <v>14.0</v>
       </c>
-      <c r="JG4" s="3" t="inlineStr">
+      <c r="JH4" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="JH4" s="3" t="inlineStr">
+      <c r="JI4" s="3" t="inlineStr">
         <is>
           <t>2530001</t>
         </is>
       </c>
-      <c r="JI4"/>
       <c r="JJ4"/>
       <c r="JK4"/>
       <c r="JL4"/>
@@ -3209,22 +3216,22 @@
       <c r="LI4"/>
       <c r="LJ4"/>
       <c r="LK4"/>
-      <c r="LL4" s="3" t="inlineStr">
+      <c r="LL4"/>
+      <c r="LM4" s="3" t="inlineStr">
         <is>
           <t>1112223338</t>
         </is>
       </c>
-      <c r="LM4" s="3" t="inlineStr">
+      <c r="LN4" s="3" t="inlineStr">
         <is>
           <t>Welby</t>
         </is>
       </c>
-      <c r="LN4" s="3" t="inlineStr">
+      <c r="LO4" s="3" t="inlineStr">
         <is>
           <t>Marcus</t>
         </is>
       </c>
-      <c r="LO4"/>
       <c r="LP4"/>
       <c r="LQ4"/>
       <c r="LR4"/>
@@ -3250,11 +3257,12 @@
       <c r="ML4"/>
       <c r="MM4"/>
       <c r="MN4"/>
+      <c r="MO4"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb5872</t>
+          <t>6901488a7e79911955eafebd</t>
         </is>
       </c>
       <c r="B5"/>
@@ -3491,61 +3499,61 @@
       <c r="HU5"/>
       <c r="HV5"/>
       <c r="HW5"/>
-      <c r="HX5" s="3" t="inlineStr">
+      <c r="HX5"/>
+      <c r="HY5" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="HY5" s="3" t="inlineStr">
+      <c r="HZ5" s="3" t="inlineStr">
         <is>
           <t>S5000</t>
         </is>
       </c>
-      <c r="HZ5"/>
       <c r="IA5"/>
       <c r="IB5"/>
       <c r="IC5"/>
       <c r="ID5"/>
-      <c r="IE5" s="1" t="n">
+      <c r="IE5"/>
+      <c r="IF5" s="1" t="n">
         <v>67.69</v>
       </c>
-      <c r="IF5" s="3" t="inlineStr">
+      <c r="IG5" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG5" t="n">
+      <c r="IH5" t="n">
         <v>7.0</v>
       </c>
-      <c r="IH5" s="3" t="inlineStr">
+      <c r="II5" s="3" t="inlineStr">
         <is>
           <t>HOME</t>
         </is>
       </c>
-      <c r="II5" s="3" t="inlineStr">
+      <c r="IJ5" s="3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="IJ5" s="2" t="n">
+      <c r="IK5" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK5"/>
       <c r="IL5"/>
       <c r="IM5"/>
       <c r="IN5"/>
       <c r="IO5"/>
       <c r="IP5"/>
-      <c r="IQ5" s="4" t="n">
+      <c r="IQ5"/>
+      <c r="IR5" s="4" t="n">
         <v>38018.0</v>
       </c>
-      <c r="IR5" s="4" t="n">
+      <c r="IS5" s="4" t="n">
         <v>38024.0</v>
       </c>
-      <c r="IS5" s="4" t="n">
+      <c r="IT5" s="4" t="n">
         <v>38016.0</v>
       </c>
-      <c r="IT5"/>
       <c r="IU5"/>
       <c r="IV5"/>
       <c r="IW5"/>
@@ -3556,25 +3564,25 @@
       <c r="JB5"/>
       <c r="JC5"/>
       <c r="JD5"/>
-      <c r="JE5" s="3" t="inlineStr">
+      <c r="JE5"/>
+      <c r="JF5" s="3" t="inlineStr">
         <is>
           <t>00338004938</t>
         </is>
       </c>
-      <c r="JF5" t="n">
+      <c r="JG5" t="n">
         <v>7.0</v>
       </c>
-      <c r="JG5" s="3" t="inlineStr">
+      <c r="JH5" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="JH5" s="3" t="inlineStr">
+      <c r="JI5" s="3" t="inlineStr">
         <is>
           <t>2530001</t>
         </is>
       </c>
-      <c r="JI5"/>
       <c r="JJ5"/>
       <c r="JK5"/>
       <c r="JL5"/>
@@ -3629,22 +3637,22 @@
       <c r="LI5"/>
       <c r="LJ5"/>
       <c r="LK5"/>
-      <c r="LL5" s="3" t="inlineStr">
+      <c r="LL5"/>
+      <c r="LM5" s="3" t="inlineStr">
         <is>
           <t>1112223338</t>
         </is>
       </c>
-      <c r="LM5" s="3" t="inlineStr">
+      <c r="LN5" s="3" t="inlineStr">
         <is>
           <t>Welby</t>
         </is>
       </c>
-      <c r="LN5" s="3" t="inlineStr">
+      <c r="LO5" s="3" t="inlineStr">
         <is>
           <t>Marcus</t>
         </is>
       </c>
-      <c r="LO5"/>
       <c r="LP5"/>
       <c r="LQ5"/>
       <c r="LR5"/>
@@ -3670,11 +3678,12 @@
       <c r="ML5"/>
       <c r="MM5"/>
       <c r="MN5"/>
+      <c r="MO5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb5872</t>
+          <t>6901488a7e79911955eafebd</t>
         </is>
       </c>
       <c r="B6"/>
@@ -3911,61 +3920,61 @@
       <c r="HU6"/>
       <c r="HV6"/>
       <c r="HW6"/>
-      <c r="HX6" s="3" t="inlineStr">
+      <c r="HX6"/>
+      <c r="HY6" s="3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="HY6" s="3" t="inlineStr">
+      <c r="HZ6" s="3" t="inlineStr">
         <is>
           <t>S5000</t>
         </is>
       </c>
-      <c r="HZ6"/>
       <c r="IA6"/>
       <c r="IB6"/>
       <c r="IC6"/>
       <c r="ID6"/>
-      <c r="IE6" s="1" t="n">
+      <c r="IE6"/>
+      <c r="IF6" s="1" t="n">
         <v>57.12</v>
       </c>
-      <c r="IF6" s="3" t="inlineStr">
+      <c r="IG6" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG6" t="n">
+      <c r="IH6" t="n">
         <v>14.0</v>
       </c>
-      <c r="IH6" s="3" t="inlineStr">
+      <c r="II6" s="3" t="inlineStr">
         <is>
           <t>HOME</t>
         </is>
       </c>
-      <c r="II6" s="3" t="inlineStr">
+      <c r="IJ6" s="3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="IJ6" s="2" t="n">
+      <c r="IK6" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK6"/>
       <c r="IL6"/>
       <c r="IM6"/>
       <c r="IN6"/>
       <c r="IO6"/>
       <c r="IP6"/>
-      <c r="IQ6" s="4" t="n">
+      <c r="IQ6"/>
+      <c r="IR6" s="4" t="n">
         <v>38018.0</v>
       </c>
-      <c r="IR6" s="4" t="n">
+      <c r="IS6" s="4" t="n">
         <v>38024.0</v>
       </c>
-      <c r="IS6" s="4" t="n">
+      <c r="IT6" s="4" t="n">
         <v>38016.0</v>
       </c>
-      <c r="IT6"/>
       <c r="IU6"/>
       <c r="IV6"/>
       <c r="IW6"/>
@@ -3976,25 +3985,25 @@
       <c r="JB6"/>
       <c r="JC6"/>
       <c r="JD6"/>
-      <c r="JE6" s="3" t="inlineStr">
+      <c r="JE6"/>
+      <c r="JF6" s="3" t="inlineStr">
         <is>
           <t>08290326810</t>
         </is>
       </c>
-      <c r="JF6" t="n">
+      <c r="JG6" t="n">
         <v>14.0</v>
       </c>
-      <c r="JG6" s="3" t="inlineStr">
+      <c r="JH6" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="JH6" s="3" t="inlineStr">
+      <c r="JI6" s="3" t="inlineStr">
         <is>
           <t>2530002</t>
         </is>
       </c>
-      <c r="JI6"/>
       <c r="JJ6"/>
       <c r="JK6"/>
       <c r="JL6"/>
@@ -4049,22 +4058,22 @@
       <c r="LI6"/>
       <c r="LJ6"/>
       <c r="LK6"/>
-      <c r="LL6" s="3" t="inlineStr">
+      <c r="LL6"/>
+      <c r="LM6" s="3" t="inlineStr">
         <is>
           <t>1112223338</t>
         </is>
       </c>
-      <c r="LM6" s="3" t="inlineStr">
+      <c r="LN6" s="3" t="inlineStr">
         <is>
           <t>Welby</t>
         </is>
       </c>
-      <c r="LN6" s="3" t="inlineStr">
+      <c r="LO6" s="3" t="inlineStr">
         <is>
           <t>Marcus</t>
         </is>
       </c>
-      <c r="LO6"/>
       <c r="LP6"/>
       <c r="LQ6"/>
       <c r="LR6"/>
@@ -4090,11 +4099,12 @@
       <c r="ML6"/>
       <c r="MM6"/>
       <c r="MN6"/>
+      <c r="MO6"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb5872</t>
+          <t>6901488a7e79911955eafebd</t>
         </is>
       </c>
       <c r="B7"/>
@@ -4331,61 +4341,61 @@
       <c r="HU7"/>
       <c r="HV7"/>
       <c r="HW7"/>
-      <c r="HX7" s="3" t="inlineStr">
+      <c r="HX7"/>
+      <c r="HY7" s="3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="HY7" s="3" t="inlineStr">
+      <c r="HZ7" s="3" t="inlineStr">
         <is>
           <t>S5000</t>
         </is>
       </c>
-      <c r="HZ7"/>
       <c r="IA7"/>
       <c r="IB7"/>
       <c r="IC7"/>
       <c r="ID7"/>
-      <c r="IE7" s="1" t="n">
+      <c r="IE7"/>
+      <c r="IF7" s="1" t="n">
         <v>10.5</v>
       </c>
-      <c r="IF7" s="3" t="inlineStr">
+      <c r="IG7" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="IG7" t="n">
+      <c r="IH7" t="n">
         <v>7.0</v>
       </c>
-      <c r="IH7" s="3" t="inlineStr">
+      <c r="II7" s="3" t="inlineStr">
         <is>
           <t>HOME</t>
         </is>
       </c>
-      <c r="II7" s="3" t="inlineStr">
+      <c r="IJ7" s="3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="IJ7" s="2" t="n">
+      <c r="IK7" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="IK7"/>
       <c r="IL7"/>
       <c r="IM7"/>
       <c r="IN7"/>
       <c r="IO7"/>
       <c r="IP7"/>
-      <c r="IQ7" s="4" t="n">
+      <c r="IQ7"/>
+      <c r="IR7" s="4" t="n">
         <v>38018.0</v>
       </c>
-      <c r="IR7" s="4" t="n">
+      <c r="IS7" s="4" t="n">
         <v>38024.0</v>
       </c>
-      <c r="IS7" s="4" t="n">
+      <c r="IT7" s="4" t="n">
         <v>38016.0</v>
       </c>
-      <c r="IT7"/>
       <c r="IU7"/>
       <c r="IV7"/>
       <c r="IW7"/>
@@ -4396,25 +4406,25 @@
       <c r="JB7"/>
       <c r="JC7"/>
       <c r="JD7"/>
-      <c r="JE7" s="3" t="inlineStr">
+      <c r="JE7"/>
+      <c r="JF7" s="3" t="inlineStr">
         <is>
           <t>829080357005</t>
         </is>
       </c>
-      <c r="JF7" t="n">
+      <c r="JG7" t="n">
         <v>7.0</v>
       </c>
-      <c r="JG7" s="3" t="inlineStr">
+      <c r="JH7" s="3" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
       </c>
-      <c r="JH7" s="3" t="inlineStr">
+      <c r="JI7" s="3" t="inlineStr">
         <is>
           <t>2530003</t>
         </is>
       </c>
-      <c r="JI7"/>
       <c r="JJ7"/>
       <c r="JK7"/>
       <c r="JL7"/>
@@ -4469,22 +4479,22 @@
       <c r="LI7"/>
       <c r="LJ7"/>
       <c r="LK7"/>
-      <c r="LL7" s="3" t="inlineStr">
+      <c r="LL7"/>
+      <c r="LM7" s="3" t="inlineStr">
         <is>
           <t>1112223338</t>
         </is>
       </c>
-      <c r="LM7" s="3" t="inlineStr">
+      <c r="LN7" s="3" t="inlineStr">
         <is>
           <t>Welby</t>
         </is>
       </c>
-      <c r="LN7" s="3" t="inlineStr">
+      <c r="LO7" s="3" t="inlineStr">
         <is>
           <t>Marcus</t>
         </is>
       </c>
-      <c r="LO7"/>
       <c r="LP7"/>
       <c r="LQ7"/>
       <c r="LR7"/>
@@ -4510,6 +4520,7 @@
       <c r="ML7"/>
       <c r="MM7"/>
       <c r="MN7"/>
+      <c r="MO7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/converted_files/837/home-infusion-ndc.xlsx
+++ b/converted_files/837/home-infusion-ndc.xlsx
@@ -1835,7 +1835,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafebd</t>
+          <t>6918d0587f059d7aab1b5043</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafebd</t>
+          <t>6918d0587f059d7aab1b5043</t>
         </is>
       </c>
       <c r="B3"/>
@@ -2841,7 +2841,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafebd</t>
+          <t>6918d0587f059d7aab1b5043</t>
         </is>
       </c>
       <c r="B4"/>
@@ -3262,7 +3262,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafebd</t>
+          <t>6918d0587f059d7aab1b5043</t>
         </is>
       </c>
       <c r="B5"/>
@@ -3683,7 +3683,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafebd</t>
+          <t>6918d0587f059d7aab1b5043</t>
         </is>
       </c>
       <c r="B6"/>
@@ -4104,7 +4104,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafebd</t>
+          <t>6918d0587f059d7aab1b5043</t>
         </is>
       </c>
       <c r="B7"/>
